--- a/Question_Sets/Cognitive ability/Intermediate Math.xlsx
+++ b/Question_Sets/Cognitive ability/Intermediate Math.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'What number is missing from the equation?', 'ques_type': 2, 'options': ['', '', '', ''], 'score': None}, {'title': 'What number is missing from the equation?5.4 X ? = 8.64 X 0.25', 'ques_type': 2, 'options': ['0.25', '0.4', '2.5', '4'], 'score': '0.4'}, {'title': 'Jane and Johnny are running a race. Jane’s speed is 1/4 that of Johnny’s.What is Johnny’s speed compared to Jane?', 'ques_type': 2, 'options': ['25%', '50%', '150%', '400%'], 'score': '400%'}, {'title': 'During the summer vacation Natalie made three hikes. The first took her 2 days 45 minutes, the second 1 day 22 hours 45 minutes and the third 2 days 7 hours 20 minutes. What was Natalie’s total hiking time for the summer vacation?', 'ques_type': 2, 'options': ['5 days 6 hours 10 minutes', '5 days 5 hours 50 minutes', '6 days 5 hours 10 minutes', '6 days 6 hours 50 minutes'], 'score': '6 days 6 hours 50 minutes'}]</t>
+    <t>questions = [
+    {
+        "title": "What number is missing from the equation?",
+        "ques_type": 2,
+        "options": [
+            "",
+            "",
+            "",
+            ""
+        ],
+        "score": null
+    },
+    {
+        "title": "What number is missing from the equation?5.4 X ? = 8.64 X 0.25",
+        "ques_type": 2,
+        "options": [
+            "0.25",
+            "0.4",
+            "2.5",
+            "4"
+        ],
+        "score": "0.4"
+    },
+    {
+        "title": "Jane and Johnny are running a race. Jane\u2019s speed is 1/4 that of Johnny\u2019s.What is Johnny\u2019s speed compared to Jane?",
+        "ques_type": 2,
+        "options": [
+            "25%",
+            "50%",
+            "150%",
+            "400%"
+        ],
+        "score": "400%"
+    },
+    {
+        "title": "During the summer vacation Natalie made three hikes. The first took her 2 days 45 minutes, the second 1 day 22 hours 45 minutes and the third 2 days 7 hours 20 minutes. What was Natalie\u2019s total hiking time for the summer vacation?",
+        "ques_type": 2,
+        "options": [
+            "5 days 6 hours 10 minutes",
+            "5 days 5 hours 50 minutes",
+            "6 days 5 hours 10 minutes",
+            "6 days 6 hours 50 minutes"
+        ],
+        "score": "6 days 6 hours 50 minutes"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
